--- a/DesignDocuments/机制、系统、数值/新手教程文本.xlsx
+++ b/DesignDocuments/机制、系统、数值/新手教程文本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>序号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -28,56 +28,143 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>Boss弱点光球获取精力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手柄按键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘按键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗精力恢复生命</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不消耗精力的地面冲刺</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中冲刺</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shift</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Press X on the ground to perform Ground dash</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Recall knives that stabbed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>weakpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> stamina ball</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Press X to consume stamina and regen life</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>while airborne, press X to consume stamina and perform Air dash</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>二段跳</t>
+  </si>
+  <si>
+    <t>拾取精力球</t>
+  </si>
+  <si>
     <t>额外跳跃/冲刺触发子弹时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss弱点光球获取精力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>手柄按键</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>键盘按键</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗精力恢复生命</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>不消耗精力的地面冲刺</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>空中冲刺</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shift</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Press X on the ground to perform Ground dash</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -115,102 +202,23 @@
       </rPr>
       <t>bullet time</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Recall knives that stabbed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">on </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>weakpoint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> to g</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ain</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> stamina ball</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Press X to consume stamina and regen life</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>while airborne, press X to consume stamina and perform Air dash</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Press X for an extra jump after recalling knives</t>
+  </si>
+  <si>
+    <t>Pick up the stamina orb to gain stamina</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -238,7 +246,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -309,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -332,9 +340,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -350,7 +361,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -636,21 +647,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="38.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="130.21875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="38.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="130.28515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="18.75" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -661,96 +672,108 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="B2" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D5" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>7</v>
+      <c r="C11" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocuments/机制、系统、数值/新手教程文本.xlsx
+++ b/DesignDocuments/机制、系统、数值/新手教程文本.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>序号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>Pick up the stamina orb to gain stamina</t>
+  </si>
+  <si>
+    <t>普通射刀/蓄力射刀（替换原射刀）</t>
+  </si>
+  <si>
+    <t>Use X to aim then tap X to throw one knife or hold X to throw all knives</t>
   </si>
 </sst>
 </file>
@@ -647,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5"/>
@@ -776,6 +782,17 @@
         <v>23</v>
       </c>
     </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocuments/机制、系统、数值/新手教程文本.xlsx
+++ b/DesignDocuments/机制、系统、数值/新手教程文本.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>序号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>Use X to aim then tap X to throw one knife or hold X to throw all knives</t>
+  </si>
+  <si>
+    <t>插刀获取精力</t>
+  </si>
+  <si>
+    <t>Recalling knife from stamina symbol can give you stamina</t>
   </si>
 </sst>
 </file>
@@ -653,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5"/>
@@ -793,6 +799,17 @@
         <v>25</v>
       </c>
     </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocuments/机制、系统、数值/新手教程文本.xlsx
+++ b/DesignDocuments/机制、系统、数值/新手教程文本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,58 +14,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>序号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Boss弱点光球获取精力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>手柄按键</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>键盘按键</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>消耗精力恢复生命</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>不消耗精力的地面冲刺</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>空中冲刺</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Shift</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Press X on the ground to perform Ground dash</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -141,23 +137,16 @@
       </rPr>
       <t xml:space="preserve"> stamina ball</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Press X to consume stamina and regen life</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>while airborne, press X to consume stamina and perform Air dash</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>LB</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>二段跳</t>
   </si>
   <si>
@@ -167,8 +156,49 @@
     <t>额外跳跃/冲刺触发子弹时间</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Jump while </t>
+    <t>Pick up the stamina orb to gain stamina</t>
+  </si>
+  <si>
+    <t>普通射刀/蓄力射刀（替换原射刀）</t>
+  </si>
+  <si>
+    <t>Use X to aim then tap X to throw one knife or hold X to throw all knives</t>
+  </si>
+  <si>
+    <t>Recalling knife from stamina symbol can give you stamina</t>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Press any button </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">while </t>
     </r>
     <r>
       <rPr>
@@ -202,37 +232,139 @@
       </rPr>
       <t>bullet time</t>
     </r>
-  </si>
-  <si>
-    <t>Press X for an extra jump after recalling knives</t>
-  </si>
-  <si>
-    <t>Pick up the stamina orb to gain stamina</t>
-  </si>
-  <si>
-    <t>普通射刀/蓄力射刀（替换原射刀）</t>
-  </si>
-  <si>
-    <t>Use X to aim then tap X to throw one knife or hold X to throw all knives</t>
-  </si>
-  <si>
-    <t>插刀获取精力</t>
-  </si>
-  <si>
-    <t>Recalling knife from stamina symbol can give you stamina</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANY</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Press X on the ground to perform </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Dodge</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>插刀符文获取精力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>While airborne, press X to consume stamina and perform Air dash</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Press X for an extra jump after recalling knives</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> or air dash</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pace</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞄准：MouseMoving； 发射：MouseLeftButton</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MouseRightButton</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ress X to perform a melee attack</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -258,7 +390,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -271,13 +403,44 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -329,35 +492,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -373,7 +557,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -659,159 +843,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="38.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="130.28515625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="2" width="8.88671875" style="6"/>
+    <col min="3" max="3" width="24.44140625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="75.21875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="6"/>
+    <col min="6" max="6" width="14" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="18.75" thickBot="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="35.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
+    <row r="2" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="6">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="6">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" ht="78" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="6">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6">
+        <v>9</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="6">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>8</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>9</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>27</v>
+      <c r="C14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <mergeCells count="1">
+    <mergeCell ref="E11:F11"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/DesignDocuments/机制、系统、数值/新手教程文本.xlsx
+++ b/DesignDocuments/机制、系统、数值/新手教程文本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>序号</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -345,17 +345,26 @@
       <t>ress X to perform a melee attack</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 修改</t>
+  </si>
+  <si>
+    <t>StaminaSymbol</t>
+  </si>
+  <si>
+    <t>重新截图</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -390,7 +399,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -541,7 +550,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -557,7 +566,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -843,26 +852,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="6"/>
-    <col min="3" max="3" width="24.44140625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="75.21875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="6"/>
+    <col min="1" max="2" width="8.85546875" style="6"/>
+    <col min="3" max="3" width="24.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="75.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="6"/>
     <col min="6" max="6" width="14" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="6"/>
+    <col min="7" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="35.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="36.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -882,7 +891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="33">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -902,7 +911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="B3" s="6">
         <v>2</v>
       </c>
@@ -913,7 +922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
@@ -933,7 +942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -953,7 +962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -973,7 +982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -993,7 +1002,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="9" t="s">
         <v>24</v>
       </c>
@@ -1009,7 +1018,7 @@
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" ht="78" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="66">
       <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
@@ -1029,7 +1038,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="9" t="s">
         <v>24</v>
       </c>
@@ -1043,7 +1052,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="33">
       <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
@@ -1061,6 +1070,20 @@
       </c>
       <c r="F14" s="11" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="6">
+        <v>11</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
